--- a/99.Other/AWS情报.xlsx
+++ b/99.Other/AWS情报.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="连接信息" sheetId="1" r:id="rId1"/>
-    <sheet name="环境配置" sheetId="2" r:id="rId2"/>
-    <sheet name="项目部署" sheetId="3" r:id="rId3"/>
+    <sheet name="环境配置" sheetId="5" r:id="rId2"/>
+    <sheet name="Postgres配置" sheetId="2" r:id="rId3"/>
+    <sheet name="Tomcat配置" sheetId="4" r:id="rId4"/>
+    <sheet name="项目部署" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>密钥文件在同目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,20 +28,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>sudo yum install java-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Inherit"/>
-        <family val="1"/>
-      </rPr>
-      <t>1.8.0</t>
-    </r>
-  </si>
-  <si>
     <t>Eclipse打包流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运行springboot项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sudo dnf install -y https://download.postgresql.org/pub/repos/yum/reporpms/EL-8-x86_64/pgdg-redhat-repo-latest.noarch.rpm</t>
   </si>
   <si>
@@ -78,78 +62,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Postgres</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0D0A0B"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>账号密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0D0A0B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0D0A0B"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0D0A0B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>postgres</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0D0A0B"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>密码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0D0A0B"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frontier-1234</t>
   </si>
   <si>
@@ -176,10 +92,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>java -jar /home/ec2-user/FrontierInfo/xiangqin/app/xiangqin-0.0.1-SNAPSHOT.jar</t>
-  </si>
-  <si>
-    <t>java -jar /home/ec2-user/FrontierInfo/xiangqin/app/xiangqin-0.0.1-SNAPSHOT.jar &amp;</t>
+    <t>Win10环境命令行连接:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinSCP连接:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec2-18-183-241-73.ap-northeast-1.compute.amazonaws.com</t>
+  </si>
+  <si>
+    <t>Password:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装Tomcat:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换root用户:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo systemctl stop postgresql-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wget -c https://downloads.apache.org/tomcat/tomcat-8/v8.5.82/bin/apache-tomcat-8.5.82.tar.gz</t>
+  </si>
+  <si>
+    <t>安装wget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo yum -y install wget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar xvzf apache-tomcat-8.5.82.tar.gz</t>
+  </si>
+  <si>
+    <t>sudo mv apache-tomcat-8.5.82 /usr/local/tomcat</t>
+  </si>
+  <si>
+    <t>启动Tomcat:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/bin/startup.sh</t>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/bin/shutdown.sh</t>
+  </si>
+  <si>
+    <t>关闭Tomcat:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root用户登录:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/webapps/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo -i -u postgres</t>
+  </si>
+  <si>
+    <t>修改linux系统postgres用户的密码</t>
+  </si>
+  <si>
+    <t>sudo passwd -d postgres</t>
+  </si>
+  <si>
+    <t>sudo -u postgres passwd</t>
+  </si>
+  <si>
+    <t>关闭Postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres账号密码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo yum install java-1.8.0</t>
+  </si>
+  <si>
+    <t>psql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemctl status postgresql-10</t>
+  </si>
+  <si>
+    <t>查看数据库状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许配置Postgres的远程登录!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,35 +236,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Inherit"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0D0A0B"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0D0A0B"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF0D0A0B"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,11 +281,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -287,8 +316,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>410653</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>182053</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>142036</xdr:rowOff>
     </xdr:to>
@@ -315,6 +344,277 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="24716" t="18011" r="24200" b="16963"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249681" y="16040101"/>
+          <a:ext cx="6598920" cy="5364480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>168155</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="11704320"/>
+          <a:ext cx="5944115" cy="4023709"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>198573</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>114674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754380" y="21762720"/>
+          <a:ext cx="5227773" cy="4320914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>175776</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>30831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754380" y="26334720"/>
+          <a:ext cx="5959356" cy="4054191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="27089100"/>
+          <a:ext cx="1455420" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703320" y="22212300"/>
+          <a:ext cx="1455420" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -607,43 +907,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B46:C54"/>
+  <dimension ref="B45:G119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="46" spans="2:2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
         <v>22</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
-      <c r="C54" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -656,103 +1000,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C22"/>
+  <dimension ref="B3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -761,33 +1187,116 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B4:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>5</v>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/99.Other/AWS情报.xlsx
+++ b/99.Other/AWS情报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="连接信息" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>密钥文件在同目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>frontier-1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,100 +115,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wget -c https://downloads.apache.org/tomcat/tomcat-8/v8.5.82/bin/apache-tomcat-8.5.82.tar.gz</t>
+  </si>
+  <si>
+    <t>安装wget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo yum -y install wget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar xvzf apache-tomcat-8.5.82.tar.gz</t>
+  </si>
+  <si>
+    <t>sudo mv apache-tomcat-8.5.82 /usr/local/tomcat</t>
+  </si>
+  <si>
+    <t>启动Tomcat:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/bin/startup.sh</t>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/bin/shutdown.sh</t>
+  </si>
+  <si>
+    <t>关闭Tomcat:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root用户登录:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/webapps/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改linux系统postgres用户的密码</t>
+  </si>
+  <si>
+    <t>关闭Postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端连接数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgres账号密码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo yum install java-1.8.0</t>
+  </si>
+  <si>
+    <t>systemctl status postgresql-10</t>
+  </si>
+  <si>
+    <t>查看数据库状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许配置Postgres的远程登录!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM information_schema.schemata;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su - root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入master数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库环境构筑:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\i /Frontier-info/xiangqin/db/schemaDDL.sql;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontier-info目录权限调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo -i -u postgres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod -R 755 /Frontier-info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\i /Frontier-info/xiangqin/db/SEQUENCE.sql;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\i /Frontier-info/xiangqin/db/数据表DDL.sql;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\i /Frontier-info/xiangqin/db/master_data.sql;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看日志:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail -f /Frontier-info/xiangqin/logs/debug.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库配置文件目录:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/var/lib/pgsql/10/data</t>
+  </si>
+  <si>
     <t>sudo systemctl stop postgresql-10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wget -c https://downloads.apache.org/tomcat/tomcat-8/v8.5.82/bin/apache-tomcat-8.5.82.tar.gz</t>
-  </si>
-  <si>
-    <t>安装wget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sudo yum -y install wget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tar xvzf apache-tomcat-8.5.82.tar.gz</t>
-  </si>
-  <si>
-    <t>sudo mv apache-tomcat-8.5.82 /usr/local/tomcat</t>
-  </si>
-  <si>
-    <t>启动Tomcat:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usr/local/tomcat/bin/startup.sh</t>
-  </si>
-  <si>
-    <t>/usr/local/tomcat/bin/shutdown.sh</t>
-  </si>
-  <si>
-    <t>关闭Tomcat:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>root用户登录:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/usr/local/tomcat/webapps/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目部署目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sudo -i -u postgres</t>
-  </si>
-  <si>
-    <t>修改linux系统postgres用户的密码</t>
-  </si>
-  <si>
-    <t>sudo passwd -d postgres</t>
-  </si>
-  <si>
-    <t>sudo -u postgres passwd</t>
-  </si>
-  <si>
-    <t>关闭Postgres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终端连接数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Postgres账号密码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sudo yum install java-1.8.0</t>
-  </si>
-  <si>
-    <t>psql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemctl status postgresql-10</t>
-  </si>
-  <si>
-    <t>查看数据库状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许配置Postgres的远程登录!!</t>
+    <t>sudo systemctl restart postgresql-10.service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alter user postgres with password 'frontier-1234';</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +334,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,6 +369,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -909,15 +990,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B45:G119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -940,7 +1021,7 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -948,25 +1029,25 @@
         <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
         <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -979,43 +1060,43 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B7"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -1028,20 +1109,33 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C44"/>
+  <dimension ref="B2:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1088,97 +1182,155 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1189,36 +1341,36 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C13"/>
+  <dimension ref="B4:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -1231,31 +1383,42 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1286,12 +1449,12 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/99.Other/AWS情报.xlsx
+++ b/99.Other/AWS情报.xlsx
@@ -991,7 +991,7 @@
   <dimension ref="B45:G119"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1134,7 @@
   <dimension ref="B2:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1344,7 @@
   <dimension ref="B4:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/99.Other/AWS情报.xlsx
+++ b/99.Other/AWS情报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="连接信息" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Postgres配置" sheetId="2" r:id="rId3"/>
     <sheet name="Tomcat配置" sheetId="4" r:id="rId4"/>
     <sheet name="项目部署" sheetId="3" r:id="rId5"/>
+    <sheet name="错误记录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>密钥文件在同目录下</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +288,36 @@
   </si>
   <si>
     <t>alter user postgres with password 'frontier-1234';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目生成目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangqin-0.0.1.war → xiangqin.war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\songsong\Frontier-info\xiangqin\03.Server\xiangqin\target</t>
+  </si>
+  <si>
+    <t>请求首页报服务器拒绝连接时检查以下文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/local/tomcat/conf/server.xml</t>
+  </si>
+  <si>
+    <t>中是否包含以下设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Context docBase="xiangqin" path="/xiangqin" reloadable="false" source="org.eclipse.jst.jee.server:xiangqin"/&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -990,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B45:G119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1343,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1424,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B11"/>
+  <dimension ref="B3:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1447,14 +1478,71 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
